--- a/sources/modelo-Atmosfera.xlsx
+++ b/sources/modelo-Atmosfera.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Documents\Sistema TRV - Bases\NEO\Atmosfera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\Documents\travessia\projeto-travessia\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489675A-D885-4D67-8E4E-6CB9055E045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9367647A-8C5F-450E-A597-24B0A0189EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Consolidado" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="[$-416]mmm/yy;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +891,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1090,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1727,6 +1734,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9407,7 +9415,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -9937,25 +9945,25 @@
       <c r="B27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="240" t="str">
+      <c r="C27" s="241" t="str">
         <f>C7</f>
         <v>31ª série</v>
       </c>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="242" t="s">
+      <c r="C28" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244" t="s">
+      <c r="D28" s="244"/>
+      <c r="E28" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="245"/>
+      <c r="F28" s="246"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -10050,7 +10058,7 @@
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="60">
-        <f t="shared" ref="F32:F36" si="1">E33*$C$16</f>
+        <f t="shared" ref="F33:F36" si="1">E33*$C$16</f>
         <v>0</v>
       </c>
       <c r="G33" s="38"/>
@@ -10153,14 +10161,14 @@
     <row r="40" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="71"/>
-      <c r="C40" s="246" t="s">
+      <c r="C40" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="246"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="246"/>
-      <c r="G40" s="246"/>
-      <c r="H40" s="246"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="247"/>
+      <c r="F40" s="247"/>
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
       <c r="I40" s="51" t="s">
         <v>52</v>
       </c>
@@ -10173,14 +10181,14 @@
       <c r="B41" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="247" t="s">
+      <c r="C41" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="239"/>
-      <c r="H41" s="239"/>
+      <c r="D41" s="240"/>
+      <c r="E41" s="240"/>
+      <c r="F41" s="240"/>
+      <c r="G41" s="240"/>
+      <c r="H41" s="240"/>
       <c r="I41" s="225">
         <f>J$20</f>
         <v>0</v>
@@ -10195,14 +10203,14 @@
       <c r="B42" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="238" t="s">
+      <c r="C42" s="239" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="239"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="239"/>
-      <c r="G42" s="239"/>
-      <c r="H42" s="239"/>
+      <c r="D42" s="240"/>
+      <c r="E42" s="240"/>
+      <c r="F42" s="240"/>
+      <c r="G42" s="240"/>
+      <c r="H42" s="240"/>
       <c r="I42" s="224" t="e">
         <f>J15/C18</f>
         <v>#DIV/0!</v>
@@ -31242,8 +31250,8 @@
   </sheetPr>
   <dimension ref="A1:R1511"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31267,6 +31275,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="238"/>
       <c r="K1" s="172" t="s">
         <v>141</v>
       </c>
@@ -31290,7 +31299,10 @@
       <c r="K3" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="173"/>
+      <c r="L3" s="173">
+        <f>DATE(YEAR(A1),MONTH(A1),DAY(A1))</f>
+        <v>0</v>
+      </c>
       <c r="M3" s="177"/>
       <c r="O3" s="170"/>
     </row>

--- a/sources/modelo-Atmosfera.xlsx
+++ b/sources/modelo-Atmosfera.xlsx
@@ -1,126 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\Documents\travessia\projeto-travessia\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0BxFtMaeiS2aZclBZbmd2VV90QTg\Equipe Travessia\Operações\Sistema Travessia - 2023\NEO\CRI Atmosfera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9367647A-8C5F-450E-A597-24B0A0189EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB83A35-C3B2-4FE2-8C8E-A51D4A29D5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relatório Consolidado" sheetId="1" r:id="rId1"/>
-    <sheet name="Relatório Analítico" sheetId="2" r:id="rId2"/>
-    <sheet name="Acompanhamento Vendas" sheetId="13" r:id="rId3"/>
-    <sheet name="Base Contratos" sheetId="10" r:id="rId4"/>
-    <sheet name="Recebimentos" sheetId="3" r:id="rId5"/>
-    <sheet name="Recebíveis" sheetId="5" r:id="rId6"/>
-    <sheet name="Relação de Contratos" sheetId="6" r:id="rId7"/>
+    <sheet name="Acomp historico" sheetId="14" r:id="rId1"/>
+    <sheet name="Relatório Consolidado" sheetId="1" r:id="rId2"/>
+    <sheet name="Relatório Analítico" sheetId="2" r:id="rId3"/>
+    <sheet name="Acompanhamento Vendas" sheetId="13" r:id="rId4"/>
+    <sheet name="Base Contratos" sheetId="10" r:id="rId5"/>
+    <sheet name="Recebimentos" sheetId="3" r:id="rId6"/>
+    <sheet name="Recebíveis" sheetId="5" r:id="rId7"/>
+    <sheet name="Relação de Contratos" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Base Contratos'!$B$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Recebimentos!$A$1:$Y$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Recebíveis!$A$6:$R$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Relação de Contratos'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Base Contratos'!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Recebimentos!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Recebíveis!$A$6:$R$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Relação de Contratos'!$A$1:$M$1</definedName>
+    <definedName name="Acquisition_Date" localSheetId="0">#REF!</definedName>
     <definedName name="Acquisition_Date">'[1]Deal Inputs'!$C$12</definedName>
-    <definedName name="AnoOrçamento" localSheetId="2">#REF!</definedName>
+    <definedName name="AnoOrçamento" localSheetId="0">#REF!</definedName>
     <definedName name="AnoOrçamento" localSheetId="3">#REF!</definedName>
-    <definedName name="AnoOrçamento" localSheetId="0">#REF!</definedName>
+    <definedName name="AnoOrçamento" localSheetId="4">#REF!</definedName>
+    <definedName name="AnoOrçamento" localSheetId="1">#REF!</definedName>
     <definedName name="AnoOrçamento">#REF!</definedName>
+    <definedName name="AP_COFINS" localSheetId="0">#REF!</definedName>
     <definedName name="AP_COFINS">'[1]Deal Inputs'!$C$42</definedName>
+    <definedName name="AP_CSLL" localSheetId="0">#REF!</definedName>
     <definedName name="AP_CSLL">'[1]Deal Inputs'!$C$45</definedName>
+    <definedName name="AP_PIS" localSheetId="0">#REF!</definedName>
     <definedName name="AP_PIS">'[1]Deal Inputs'!$C$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Acompanhamento Vendas'!$A$1:$I$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Relatório Analítico'!$A$1:$M$71</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Relatório Consolidado'!$A$1:$J$49</definedName>
-    <definedName name="arq" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Acompanhamento Vendas'!$A$1:$I$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Relatório Analítico'!$A$1:$M$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Relatório Consolidado'!$A$1:$J$48</definedName>
+    <definedName name="arq" localSheetId="0">#REF!</definedName>
     <definedName name="arq" localSheetId="3">#REF!</definedName>
-    <definedName name="arq" localSheetId="0">#REF!</definedName>
+    <definedName name="arq" localSheetId="4">#REF!</definedName>
+    <definedName name="arq" localSheetId="1">#REF!</definedName>
     <definedName name="arq">#REF!</definedName>
-    <definedName name="assunto" localSheetId="2">#REF!</definedName>
+    <definedName name="assunto" localSheetId="0">#REF!</definedName>
     <definedName name="assunto" localSheetId="3">#REF!</definedName>
-    <definedName name="assunto" localSheetId="0">#REF!</definedName>
+    <definedName name="assunto" localSheetId="4">#REF!</definedName>
+    <definedName name="assunto" localSheetId="1">#REF!</definedName>
     <definedName name="assunto">#REF!</definedName>
+    <definedName name="Broker_fee" localSheetId="0">#REF!</definedName>
     <definedName name="Broker_fee">'[1]Deal Inputs'!$C$13</definedName>
+    <definedName name="BTS_SLB" localSheetId="0">#REF!</definedName>
     <definedName name="BTS_SLB">'[1]Deal Inputs'!$B$4</definedName>
+    <definedName name="Capex" localSheetId="0">#REF!</definedName>
     <definedName name="Capex">'[1]Deal Inputs'!$C$27</definedName>
+    <definedName name="Capital_Gains" localSheetId="0">#REF!</definedName>
     <definedName name="Capital_Gains">'[1]Deal Inputs'!$G$34</definedName>
+    <definedName name="carencia" localSheetId="0">#REF!</definedName>
     <definedName name="carencia">[2]cálculos!$G$10</definedName>
-    <definedName name="Construction_Total" localSheetId="2">'[1]Purchase installments'!#REF!</definedName>
+    <definedName name="Construction_Total" localSheetId="0">#REF!</definedName>
     <definedName name="Construction_Total" localSheetId="3">'[1]Purchase installments'!#REF!</definedName>
-    <definedName name="Construction_Total" localSheetId="0">'[1]Purchase installments'!#REF!</definedName>
+    <definedName name="Construction_Total" localSheetId="4">'[1]Purchase installments'!#REF!</definedName>
+    <definedName name="Construction_Total" localSheetId="1">'[1]Purchase installments'!#REF!</definedName>
     <definedName name="Construction_Total">'[1]Purchase installments'!#REF!</definedName>
-    <definedName name="danalise" localSheetId="2">[3]PAINEL!$B$4</definedName>
+    <definedName name="danalise" localSheetId="0">#REF!</definedName>
     <definedName name="danalise" localSheetId="3">[3]PAINEL!$B$4</definedName>
-    <definedName name="danalise" localSheetId="0">[3]PAINEL!$B$4</definedName>
+    <definedName name="danalise" localSheetId="4">[3]PAINEL!$B$4</definedName>
+    <definedName name="danalise" localSheetId="1">[3]PAINEL!$B$4</definedName>
     <definedName name="danalise">[4]PAINEL!$B$4</definedName>
-    <definedName name="dbase" localSheetId="2">[3]PAINEL!$B$5</definedName>
+    <definedName name="dbase" localSheetId="0">#REF!</definedName>
     <definedName name="dbase" localSheetId="3">[3]PAINEL!$B$5</definedName>
-    <definedName name="dbase" localSheetId="0">[3]PAINEL!$B$5</definedName>
+    <definedName name="dbase" localSheetId="4">[3]PAINEL!$B$5</definedName>
+    <definedName name="dbase" localSheetId="1">[3]PAINEL!$B$5</definedName>
     <definedName name="dbase">[4]PAINEL!$B$5</definedName>
+    <definedName name="Debt_Rate" localSheetId="0">#REF!</definedName>
     <definedName name="Debt_Rate">'[1]Deal Inputs'!$G$11</definedName>
-    <definedName name="destinatarios" localSheetId="2">#REF!</definedName>
+    <definedName name="destinatarios" localSheetId="0">#REF!</definedName>
     <definedName name="destinatarios" localSheetId="3">#REF!</definedName>
-    <definedName name="destinatarios" localSheetId="0">#REF!</definedName>
+    <definedName name="destinatarios" localSheetId="4">#REF!</definedName>
+    <definedName name="destinatarios" localSheetId="1">#REF!</definedName>
     <definedName name="destinatarios">#REF!</definedName>
-    <definedName name="dias" localSheetId="2">[5]Feriados!#REF!</definedName>
+    <definedName name="dias" localSheetId="0">#REF!</definedName>
     <definedName name="dias" localSheetId="3">[5]Feriados!#REF!</definedName>
-    <definedName name="dias" localSheetId="0">[5]Feriados!#REF!</definedName>
+    <definedName name="dias" localSheetId="4">[5]Feriados!#REF!</definedName>
+    <definedName name="dias" localSheetId="1">[5]Feriados!#REF!</definedName>
     <definedName name="dias">[5]Feriados!#REF!</definedName>
+    <definedName name="DP_COFINS" localSheetId="0">#REF!</definedName>
     <definedName name="DP_COFINS">'[1]Deal Inputs'!$D$42</definedName>
+    <definedName name="DP_CSLL" localSheetId="0">#REF!</definedName>
     <definedName name="DP_CSLL">'[1]Deal Inputs'!$D$45</definedName>
+    <definedName name="DP_PIS" localSheetId="0">#REF!</definedName>
     <definedName name="DP_PIS">'[1]Deal Inputs'!$D$41</definedName>
-    <definedName name="Equity_Payments" localSheetId="2">'[1]Deal Inputs'!#REF!</definedName>
+    <definedName name="Equity_Payments" localSheetId="0">#REF!</definedName>
     <definedName name="Equity_Payments" localSheetId="3">'[1]Deal Inputs'!#REF!</definedName>
-    <definedName name="Equity_Payments" localSheetId="0">'[1]Deal Inputs'!#REF!</definedName>
+    <definedName name="Equity_Payments" localSheetId="4">'[1]Deal Inputs'!#REF!</definedName>
+    <definedName name="Equity_Payments" localSheetId="1">'[1]Deal Inputs'!#REF!</definedName>
     <definedName name="Equity_Payments">'[1]Deal Inputs'!#REF!</definedName>
+    <definedName name="Exit_Cap_Rate" localSheetId="0">#REF!</definedName>
     <definedName name="Exit_Cap_Rate">'[1]Deal Inputs'!$C$10</definedName>
+    <definedName name="Exit_Year" localSheetId="0">#REF!</definedName>
     <definedName name="Exit_Year">'[1]Deal Inputs'!$C$11</definedName>
+    <definedName name="FCF" localSheetId="0">#REF!</definedName>
     <definedName name="FCF">[1]DealSum!$O$52</definedName>
+    <definedName name="Feriados" localSheetId="0">#REF!</definedName>
     <definedName name="Feriados">[5]Feriados!$A$2:$A$937</definedName>
+    <definedName name="Foreign_investor_withholding" localSheetId="0">#REF!</definedName>
     <definedName name="Foreign_investor_withholding">'[1]Deal Inputs'!$G$36</definedName>
+    <definedName name="Going_In_Cap_Rate" localSheetId="0">#REF!</definedName>
     <definedName name="Going_In_Cap_Rate">'[1]Deal Inputs'!$C$22</definedName>
+    <definedName name="Inflation" localSheetId="0">#REF!</definedName>
     <definedName name="Inflation">'[1]Deal Inputs'!$C$16</definedName>
+    <definedName name="IOF" localSheetId="0">#REF!</definedName>
     <definedName name="IOF">'[1]Deal Inputs'!$C$38</definedName>
+    <definedName name="ITBI" localSheetId="0">#REF!</definedName>
     <definedName name="ITBI">'[1]Deal Inputs'!$C$36</definedName>
+    <definedName name="Juros_CRI" localSheetId="0">#REF!</definedName>
     <definedName name="Juros_CRI">'[5]5ª Serie (Senior)'!$C$13</definedName>
+    <definedName name="Land_Cost" localSheetId="0">#REF!</definedName>
     <definedName name="Land_Cost">[1]PropSummary!$L$37</definedName>
+    <definedName name="Lease_Payment" localSheetId="0">#REF!</definedName>
     <definedName name="Lease_Payment">'[1]Deal Inputs'!$C$31</definedName>
+    <definedName name="LTV" localSheetId="0">#REF!</definedName>
     <definedName name="LTV">'[1]Deal Inputs'!$G$13</definedName>
-    <definedName name="mensagem" localSheetId="2">#REF!</definedName>
+    <definedName name="mensagem" localSheetId="0">#REF!</definedName>
     <definedName name="mensagem" localSheetId="3">#REF!</definedName>
-    <definedName name="mensagem" localSheetId="0">#REF!</definedName>
+    <definedName name="mensagem" localSheetId="4">#REF!</definedName>
+    <definedName name="mensagem" localSheetId="1">#REF!</definedName>
     <definedName name="mensagem">#REF!</definedName>
+    <definedName name="New_Debt" localSheetId="0">#REF!</definedName>
     <definedName name="New_Debt">'[1]Deal Inputs'!$G$10</definedName>
+    <definedName name="Percent_Sold" localSheetId="0">#REF!</definedName>
     <definedName name="Percent_Sold">'[1]Deal Inputs'!$G$13</definedName>
+    <definedName name="prz_total" localSheetId="0">#REF!</definedName>
     <definedName name="prz_total">[2]cálculos!$D$8</definedName>
+    <definedName name="Qtd_CRI" localSheetId="0">#REF!</definedName>
     <definedName name="Qtd_CRI">'[5]5ª Serie (Senior)'!$C$9</definedName>
+    <definedName name="Refinance" localSheetId="0">#REF!</definedName>
     <definedName name="Refinance">'[1]Deal Inputs'!$G$17</definedName>
-    <definedName name="reporte" localSheetId="2">#REF!</definedName>
+    <definedName name="reporte" localSheetId="0">#REF!</definedName>
     <definedName name="reporte" localSheetId="3">#REF!</definedName>
-    <definedName name="reporte" localSheetId="0">#REF!</definedName>
+    <definedName name="reporte" localSheetId="4">#REF!</definedName>
+    <definedName name="reporte" localSheetId="1">#REF!</definedName>
     <definedName name="reporte">#REF!</definedName>
-    <definedName name="reporte_pdf" localSheetId="2">#REF!</definedName>
+    <definedName name="reporte_pdf" localSheetId="0">#REF!</definedName>
     <definedName name="reporte_pdf" localSheetId="3">#REF!</definedName>
-    <definedName name="reporte_pdf" localSheetId="0">#REF!</definedName>
+    <definedName name="reporte_pdf" localSheetId="4">#REF!</definedName>
+    <definedName name="reporte_pdf" localSheetId="1">#REF!</definedName>
     <definedName name="reporte_pdf">#REF!</definedName>
+    <definedName name="Sale_Expense" localSheetId="0">#REF!</definedName>
     <definedName name="Sale_Expense">'[1]Deal Inputs'!$C$14</definedName>
+    <definedName name="series" localSheetId="0">#REF!</definedName>
     <definedName name="series">[6]Gráfico!$E$2:$AK$2</definedName>
+    <definedName name="Tax_Basis" localSheetId="0">#REF!</definedName>
     <definedName name="Tax_Basis">'[1]Deal Inputs'!$D$46</definedName>
+    <definedName name="Tax_Structure" localSheetId="0">#REF!</definedName>
     <definedName name="Tax_Structure">'[1]Deal Inputs'!$F$38</definedName>
+    <definedName name="Taxation" localSheetId="0">#REF!</definedName>
     <definedName name="Taxation">[1]Taxation!$C$8</definedName>
+    <definedName name="Vlr_Unit_CRI" localSheetId="0">#REF!</definedName>
     <definedName name="Vlr_Unit_CRI">'[5]5ª Serie (Senior)'!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
@@ -144,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="196">
   <si>
     <t>Relatório Executivo</t>
   </si>
@@ -323,9 +373,6 @@
     <t>2- Saldo Devedor Total da Carteira: Saldo Adimplente, mais saldo devedor da carteira com atraso superior a 90 dias.</t>
   </si>
   <si>
-    <t>3 - Apuração da demonstração do estoque: incluindo a promessa de constituiçao de garantia futura das unidades em estoque do empreendimento OVH.</t>
-  </si>
-  <si>
     <t>Relatório Analítico</t>
   </si>
   <si>
@@ -417,9 +464,6 @@
   </si>
   <si>
     <t>Total em Atraso :</t>
-  </si>
-  <si>
-    <t>Modificar Gatilhos</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -628,9 +672,6 @@
     <t>31ª série</t>
   </si>
   <si>
-    <t>Razão de Garantia: A razão entre o saldo devedor dos Créditos Imobiliários Totais e o saldo devedor dos CRI &gt; 140%</t>
-  </si>
-  <si>
     <t>Fundo de Reserva no montante de R$ 300.000,00</t>
   </si>
   <si>
@@ -642,12 +683,114 @@
   <si>
     <t>Banco Itaú / Ag 8499 / Conta 33023-4</t>
   </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Valor ( R$ )</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distrato </t>
+  </si>
+  <si>
+    <t>Data Análise:</t>
+  </si>
+  <si>
+    <t>Data Do Relatório Mensal:</t>
+  </si>
+  <si>
+    <t>Quantida Cri</t>
+  </si>
+  <si>
+    <t>Pu Atualizado</t>
+  </si>
+  <si>
+    <t>Data Evento</t>
+  </si>
+  <si>
+    <t>Juros Remuneratórios</t>
+  </si>
+  <si>
+    <t>Amortização Extraordinária</t>
+  </si>
+  <si>
+    <t>Resumo Consolidado Carteira</t>
+  </si>
+  <si>
+    <t>Recebimentos</t>
+  </si>
+  <si>
+    <t>Recebido Mes (C/C)</t>
+  </si>
+  <si>
+    <t>Recebimento Antecipado</t>
+  </si>
+  <si>
+    <t>Recebimento Regular</t>
+  </si>
+  <si>
+    <t>Recebido Em Atraso</t>
+  </si>
+  <si>
+    <t>Inadimplência No Mês</t>
+  </si>
+  <si>
+    <t>Inadimplência Acumulada</t>
+  </si>
+  <si>
+    <t>Fluxo Esperado Da Carteira (Mês)</t>
+  </si>
+  <si>
+    <t>Saldo Adimplente Da Carteira</t>
+  </si>
+  <si>
+    <t>Saldo Devedor Inadimplência Superior A 90</t>
+  </si>
+  <si>
+    <t>Saldo Devedor Total Da Carteira</t>
+  </si>
+  <si>
+    <t>Ltv Médio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundo de Obra </t>
+  </si>
+  <si>
+    <t>Volume Vendas</t>
+  </si>
+  <si>
+    <t>Unida Vendidas No Mes</t>
+  </si>
+  <si>
+    <t>Valor Vendas</t>
+  </si>
+  <si>
+    <t>Valor Das Unidas Vendidas</t>
+  </si>
+  <si>
+    <t>Parcelas Antecipadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Até 15 </t>
+  </si>
+  <si>
+    <t>Recebimento Em Atraso</t>
+  </si>
+  <si>
+    <t>Parcelas Em Atraso</t>
+  </si>
+  <si>
+    <t>Razão de Garantia: A razão entre o saldo devedor dos Créditos Imobiliários Totais e o saldo devedor dos CRI &gt; 125%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="18">
+  <numFmts count="20">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -666,8 +809,10 @@
     <numFmt numFmtId="176" formatCode="&quot;R$ &quot;#,##0.00;&quot;-R$ &quot;#,##0.00"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="[$-416]mmm/yy;@"/>
+    <numFmt numFmtId="179" formatCode="[$-416]mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,8 +1043,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,6 +1138,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF397F81"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1097,7 +1254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1735,6 +1892,75 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4229,18 +4455,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4319,7 +4545,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>43861</v>
+            <v>43890</v>
           </cell>
         </row>
       </sheetData>
@@ -9408,15 +9634,906 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBE9F2A-915B-4760-8A40-AB4DDBCCF59B}">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="16384" width="14.42578125" style="242"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="241"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="243"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="243"/>
+      <c r="B3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="244">
+        <f>'Relatório Consolidado'!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="243"/>
+      <c r="B4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="244">
+        <f>'Relatório Consolidado'!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="243"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="246"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="243"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="246"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="243"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="248"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="243"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="264" t="str">
+        <f>'Relatório Consolidado'!C7</f>
+        <v>31ª série</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="243"/>
+      <c r="B9" s="249" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="250">
+        <f>'Relatório Consolidado'!C16</f>
+        <v>34516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="243"/>
+      <c r="B10" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="251">
+        <f>'Relatório Consolidado'!C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="243"/>
+      <c r="B11" s="249" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="252">
+        <f>'Relatório Consolidado'!F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="243"/>
+      <c r="B12" s="253" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="251">
+        <f>'Relatório Consolidado'!F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="243"/>
+      <c r="B13" s="249" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="254">
+        <f>'Relatório Consolidado'!F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="243"/>
+      <c r="B14" s="253" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="251">
+        <f>'Relatório Consolidado'!F33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="243"/>
+      <c r="B15" s="249" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="255">
+        <f>'Relatório Consolidado'!F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="243"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="243"/>
+      <c r="B17" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="243"/>
+      <c r="B18" s="256" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="257"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="249" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="255">
+        <f>'Relatório Consolidado'!J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="243" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="253" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="251">
+        <f>'Relatório Consolidado'!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="243" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="249" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="255">
+        <f>'Relatório Consolidado'!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="253" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="251">
+        <f>'Relatório Consolidado'!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="243" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="249" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="255">
+        <f>'Relatório Consolidado'!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="243" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="253" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="251">
+        <f>'Relatório Consolidado'!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="243" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="249" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="255">
+        <f>'Relatório Consolidado'!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="243" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="253" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="251">
+        <f>'Relatório Consolidado'!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="243" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="249" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="255">
+        <f>'Relatório Consolidado'!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="243" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="253" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="251">
+        <f>'Relatório Consolidado'!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="243" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="249" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="254" t="e">
+        <f>'Relatório Consolidado'!J18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="243" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="253" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="258" t="e">
+        <f>'Relatório Consolidado'!J19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="243" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="249" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="255">
+        <f>'Relatório Consolidado'!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="243"/>
+      <c r="B32" s="253" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="251">
+        <f>'Relatório Consolidado'!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="243" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="255">
+        <f>'Relatório Consolidado'!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="243" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="253" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="251" t="e">
+        <f>'Relatório Consolidado'!S3</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="243" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="249" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="259" t="e">
+        <f>'Relatório Consolidado'!T3</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="243"/>
+      <c r="B36" s="253" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="251">
+        <f>'Relatório Consolidado'!I41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="243"/>
+      <c r="B37" s="249" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="254" t="e">
+        <f>'Relatório Consolidado'!I42</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="243"/>
+      <c r="B38" s="265"/>
+      <c r="C38" s="254"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="243" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="243" t="str">
+        <f t="shared" ref="A40:A47" si="0">A$39&amp;B40</f>
+        <v xml:space="preserve">Antecipação (em dias)²Até 15 </v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="251">
+        <f>'Relatório Analítico'!D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="243" t="str">
+        <f t="shared" si="0"/>
+        <v>Antecipação (em dias)²Entre 15 e 30</v>
+      </c>
+      <c r="B41" s="260" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="255">
+        <f>'Relatório Analítico'!D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="243" t="str">
+        <f t="shared" si="0"/>
+        <v>Antecipação (em dias)²Entre 30 e 60</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="251">
+        <f>'Relatório Analítico'!D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="243" t="str">
+        <f t="shared" si="0"/>
+        <v>Antecipação (em dias)²Entre 60 e 90</v>
+      </c>
+      <c r="B43" s="260" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="255">
+        <f>'Relatório Analítico'!D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="243" t="str">
+        <f t="shared" si="0"/>
+        <v>Antecipação (em dias)²Entre 90 e 120</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="251">
+        <f>'Relatório Analítico'!D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="243" t="str">
+        <f t="shared" si="0"/>
+        <v>Antecipação (em dias)²Entre 120 e 150</v>
+      </c>
+      <c r="B45" s="260" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="255">
+        <f>'Relatório Analítico'!D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="243" t="str">
+        <f t="shared" si="0"/>
+        <v>Antecipação (em dias)²Entre 150 e 180</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="251">
+        <f>'Relatório Analítico'!D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="261" t="str">
+        <f t="shared" si="0"/>
+        <v>Antecipação (em dias)²Superior a 180</v>
+      </c>
+      <c r="B47" s="260" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="255">
+        <f>'Relatório Analítico'!D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="17"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="243" t="str">
+        <f t="shared" ref="A49:A56" si="1">A$48&amp;B49</f>
+        <v xml:space="preserve">Recebimento em Atraso (em dias)³Até 15 </v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="251">
+        <f>'Relatório Analítico'!D26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Recebimento em Atraso (em dias)³Entre 15 e 30</v>
+      </c>
+      <c r="B50" s="260" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="255">
+        <f>'Relatório Analítico'!D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Recebimento em Atraso (em dias)³Entre 30 e 60</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="251">
+        <f>'Relatório Analítico'!D28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Recebimento em Atraso (em dias)³Entre 60 e 90</v>
+      </c>
+      <c r="B52" s="260" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="255">
+        <f>'Relatório Analítico'!D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Recebimento em Atraso (em dias)³Entre 90 e 120</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="251">
+        <f>'Relatório Analítico'!D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Recebimento em Atraso (em dias)³Entre 120 e 150</v>
+      </c>
+      <c r="B54" s="260" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="255">
+        <f>'Relatório Analítico'!D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Recebimento em Atraso (em dias)³Entre 150 e 180</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="251">
+        <f>'Relatório Analítico'!D32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="261" t="str">
+        <f t="shared" si="1"/>
+        <v>Recebimento em Atraso (em dias)³Superior a 180</v>
+      </c>
+      <c r="B56" s="260" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="255">
+        <f>'Relatório Analítico'!D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="243" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="17"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="243" t="str">
+        <f t="shared" ref="A58:A66" si="2">A$57&amp;B58</f>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Em Dia</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="251">
+        <f>'Relatório Analítico'!D44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Até 15 </v>
+      </c>
+      <c r="B59" s="260" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="255">
+        <f>'Relatório Analítico'!D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 15 e 30</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="251">
+        <f>'Relatório Analítico'!D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 30 e 60</v>
+      </c>
+      <c r="B61" s="260" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="255">
+        <f>'Relatório Analítico'!D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 60 e 90</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="251">
+        <f>'Relatório Analítico'!D48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 90 e 120</v>
+      </c>
+      <c r="B63" s="260" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="255">
+        <f>'Relatório Analítico'!D49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 120 e 150</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="251">
+        <f>'Relatório Analítico'!D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 150 e 180</v>
+      </c>
+      <c r="B65" s="260" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="255">
+        <f>'Relatório Analítico'!D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="261" t="str">
+        <f t="shared" si="2"/>
+        <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Superior a 180</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="251">
+        <f>'Relatório Analítico'!D52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="243" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="243" t="str">
+        <f t="shared" ref="A68:A75" si="3">A$67&amp;B68</f>
+        <v xml:space="preserve">3. Inadimplência da Carteira (em dias)Até 15 </v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="251">
+        <f>'Relatório Analítico'!D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Inadimplência da Carteira (em dias)Entre 15 e 30</v>
+      </c>
+      <c r="B69" s="260" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="255">
+        <f>'Relatório Analítico'!D62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Inadimplência da Carteira (em dias)Entre 30 e 60</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="251">
+        <f>'Relatório Analítico'!D63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Inadimplência da Carteira (em dias)Entre 60 e 90</v>
+      </c>
+      <c r="B71" s="260" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="255">
+        <f>'Relatório Analítico'!D64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Inadimplência da Carteira (em dias)Entre 90 e 120</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="251">
+        <f>'Relatório Analítico'!D65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Inadimplência da Carteira (em dias)Entre 120 e 150</v>
+      </c>
+      <c r="B73" s="260" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="255">
+        <f>'Relatório Analítico'!D66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Inadimplência da Carteira (em dias)Entre 150 e 180</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="251">
+        <f>'Relatório Analítico'!D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Inadimplência da Carteira (em dias)Superior a 180</v>
+      </c>
+      <c r="B75" s="260" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="255">
+        <f>'Relatório Analítico'!D68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="243"/>
+      <c r="B76" s="262"/>
+      <c r="C76" s="255"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="243"/>
+      <c r="B77" s="262"/>
+      <c r="C77" s="263"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="243"/>
+      <c r="B78" s="245"/>
+      <c r="C78" s="66"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="243"/>
+      <c r="B79" s="245"/>
+      <c r="C79" s="66"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="243"/>
+      <c r="B80" s="245"/>
+      <c r="C80" s="66"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="243"/>
+      <c r="B81" s="245"/>
+      <c r="C81" s="66"/>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="243"/>
+      <c r="B82" s="245"/>
+      <c r="C82" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="12" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D43AF0-9604-4A31-BABC-090F36673AC2}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9433,7 +10550,7 @@
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9446,8 +10563,15 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="153"/>
+      <c r="S1" s="153" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="153" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -9464,8 +10588,11 @@
       <c r="J2" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
         <v>4</v>
@@ -9478,8 +10605,19 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="153" t="e">
+        <f>_xlfn.XLOOKUP(DATE(YEAR(J4),MONTH(J4),1),'Acompanhamento Vendas'!B:B,'Acompanhamento Vendas'!D:D)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T3" s="240" t="e">
+        <f>_xlfn.XLOOKUP(DATE(YEAR(J4),MONTH(J4),1),'Acompanhamento Vendas'!B:B,'Acompanhamento Vendas'!E:E)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -9495,8 +10633,19 @@
         <f>'Relatório Analítico'!C4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="S4" s="153" t="e">
+        <f>_xlfn.XLOOKUP(DATE(YEAR(J4),MONTH(J4),1),'Acompanhamento Vendas'!B:B,'Acompanhamento Vendas'!F:F)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T4" s="240" t="e">
+        <f>_xlfn.XLOOKUP(DATE(YEAR(J4),MONTH(J4),1),'Acompanhamento Vendas'!B:B,'Acompanhamento Vendas'!G:G)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
@@ -9507,8 +10656,19 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="S5" s="153" t="e">
+        <f>_xlfn.XLOOKUP(DATE(YEAR(J4),MONTH(J4),1),'Acompanhamento Vendas'!B:B,'Acompanhamento Vendas'!H:H)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="240" t="e">
+        <f>_xlfn.XLOOKUP(DATE(YEAR(J4),MONTH(J4),1),'Acompanhamento Vendas'!B:B,'Acompanhamento Vendas'!I:I)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
@@ -9520,13 +10680,13 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="1"/>
@@ -9543,7 +10703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="22" t="s">
         <v>9</v>
@@ -9567,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="27" t="s">
         <v>11</v>
@@ -9598,13 +10758,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="1"/>
@@ -9629,13 +10789,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="1"/>
@@ -9660,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
         <v>20</v>
@@ -9684,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
         <v>22</v>
@@ -9708,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
         <v>24</v>
@@ -9732,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="27" t="s">
         <v>26</v>
@@ -9756,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
         <v>28</v>
@@ -9833,7 +10993,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="1"/>
@@ -9857,7 +11017,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="1"/>
@@ -9945,25 +11105,25 @@
       <c r="B27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="241" t="str">
+      <c r="C27" s="268" t="str">
         <f>C7</f>
         <v>31ª série</v>
       </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="269"/>
+      <c r="F27" s="269"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="243" t="s">
+      <c r="C28" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="244"/>
-      <c r="E28" s="245" t="s">
+      <c r="D28" s="271"/>
+      <c r="E28" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="246"/>
+      <c r="F28" s="273"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -10027,7 +11187,7 @@
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C32" s="228">
         <v>0</v>
@@ -10161,14 +11321,14 @@
     <row r="40" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="71"/>
-      <c r="C40" s="247" t="s">
+      <c r="C40" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="247"/>
-      <c r="E40" s="247"/>
-      <c r="F40" s="247"/>
-      <c r="G40" s="247"/>
-      <c r="H40" s="247"/>
+      <c r="D40" s="274"/>
+      <c r="E40" s="274"/>
+      <c r="F40" s="274"/>
+      <c r="G40" s="274"/>
+      <c r="H40" s="274"/>
       <c r="I40" s="51" t="s">
         <v>52</v>
       </c>
@@ -10181,14 +11341,14 @@
       <c r="B41" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="248" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
+      <c r="C41" s="275" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="267"/>
+      <c r="E41" s="267"/>
+      <c r="F41" s="267"/>
+      <c r="G41" s="267"/>
+      <c r="H41" s="267"/>
       <c r="I41" s="225">
         <f>J$20</f>
         <v>0</v>
@@ -10203,32 +11363,25 @@
       <c r="B42" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="239" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="240"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="240"/>
-      <c r="G42" s="240"/>
-      <c r="H42" s="240"/>
+      <c r="C42" s="266" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="267"/>
+      <c r="E42" s="267"/>
+      <c r="F42" s="267"/>
+      <c r="G42" s="267"/>
+      <c r="H42" s="267"/>
       <c r="I42" s="224" t="e">
         <f>J15/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="73" t="e">
-        <f>IF(I42&gt;140%,"OK","NOK")</f>
+        <f>IF(I42&gt;125%,"OK","NOK")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K42" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" s="170">
-        <v>0.85939890786616757</v>
-      </c>
-      <c r="M42" s="237" t="e">
-        <f>I42-L42</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K42" s="153"/>
+      <c r="L42" s="170"/>
+      <c r="M42" s="237"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -10307,11 +11460,6 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="82" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10329,7 +11477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55B6211-A272-4B1E-916F-3EAD5D32C5FF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -10337,8 +11485,8 @@
   </sheetPr>
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10361,7 +11509,7 @@
     <row r="1" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="84"/>
@@ -10498,7 +11646,7 @@
     <row r="6" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97"/>
       <c r="B6" s="98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="99"/>
       <c r="D6" s="100"/>
@@ -10515,7 +11663,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="101"/>
       <c r="Q6" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R6" s="96">
         <f>D22</f>
@@ -10544,7 +11692,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="87"/>
       <c r="Q7" s="102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R7" s="103">
         <f>D34</f>
@@ -10558,7 +11706,7 @@
     <row r="8" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="104"/>
@@ -10575,7 +11723,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R8" s="96">
         <f>D10</f>
@@ -10590,13 +11738,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="105"/>
       <c r="C9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="E9" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -10622,7 +11770,7 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento Regular",Recebimentos!T:T,'Relatório Analítico'!C5)</f>
@@ -10680,7 +11828,7 @@
     <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="110"/>
@@ -10707,13 +11855,13 @@
       <c r="A13" s="1"/>
       <c r="B13" s="105"/>
       <c r="C13" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="E13" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -10739,7 +11887,7 @@
         <v>Antecipação (em dias)²Até 15</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B14)</f>
@@ -10750,6 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="108">
+        <f>IFERROR(D14/$D$22,0)</f>
         <v>0</v>
       </c>
       <c r="F14" s="6"/>
@@ -10776,7 +11925,7 @@
         <v>Antecipação (em dias)²Entre 15 e 30</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B15)</f>
@@ -10787,6 +11936,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="114">
+        <f t="shared" ref="E15:E22" si="1">IFERROR(D15/$D$22,0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
@@ -10813,7 +11963,7 @@
         <v>Antecipação (em dias)²Entre 30 e 60</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B16)</f>
@@ -10824,6 +11974,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="108">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
@@ -10850,7 +12001,7 @@
         <v>Antecipação (em dias)²Entre 60 e 90</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B17)</f>
@@ -10861,6 +12012,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="114">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
@@ -10887,7 +12039,7 @@
         <v>Antecipação (em dias)²Entre 90 e 120</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B18)</f>
@@ -10898,6 +12050,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="108">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="6"/>
@@ -10924,7 +12077,7 @@
         <v>Antecipação (em dias)²Entre 120 e 150</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B19)</f>
@@ -10935,6 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="114">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
@@ -10961,7 +12115,7 @@
         <v>Antecipação (em dias)²Entre 150 e 180</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B20)</f>
@@ -10972,6 +12126,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="108">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20" s="6"/>
@@ -10998,7 +12153,7 @@
         <v>Antecipação (em dias)²Superior a 180</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Antecipação",Recebimentos!Y:Y,'Relatório Analítico'!B21)</f>
@@ -11009,6 +12164,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="114">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
@@ -11035,7 +12191,7 @@
         <v>Antecipação (em dias)²Total em antecipação</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="116">
         <f>SUM(C14:C21)</f>
@@ -11046,6 +12202,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="118">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22" s="6"/>
@@ -11093,7 +12250,7 @@
     <row r="24" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="110"/>
@@ -11120,13 +12277,13 @@
       <c r="A25" s="1"/>
       <c r="B25" s="105"/>
       <c r="C25" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="E25" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -11148,11 +12305,11 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
-        <f t="shared" ref="A26:A31" si="1">B$24&amp;$B26&amp;$D$5</f>
+        <f t="shared" ref="A26:A31" si="2">B$24&amp;$B26&amp;$D$5</f>
         <v>Recebimento em Atraso (em dias)³Até 15</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B26)</f>
@@ -11162,9 +12319,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="108" t="e">
-        <f t="shared" ref="E26:E34" si="2">D26/$D$34</f>
-        <v>#DIV/0!</v>
+      <c r="E26" s="108">
+        <f>IFERROR(D26/$D$34,0)</f>
+        <v>0</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -11186,11 +12343,11 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Recebimento em Atraso (em dias)³Entre 15 e 30</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B27)</f>
@@ -11200,9 +12357,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="114" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E27" s="114">
+        <f t="shared" ref="E27:E34" si="3">IFERROR(D27/$D$34,0)</f>
+        <v>0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -11224,11 +12381,11 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Recebimento em Atraso (em dias)³Entre 30 e 60</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B28)</f>
@@ -11238,9 +12395,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B28)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="108" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E28" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11262,11 +12419,11 @@
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Recebimento em Atraso (em dias)³Entre 60 e 90</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B29)</f>
@@ -11276,9 +12433,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B29)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="114" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E29" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -11300,11 +12457,11 @@
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Recebimento em Atraso (em dias)³Entre 90 e 120</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B30)</f>
@@ -11314,9 +12471,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B30)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="108" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E30" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="15"/>
@@ -11338,11 +12495,11 @@
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Recebimento em Atraso (em dias)³Entre 120 e 150</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B31)</f>
@@ -11352,9 +12509,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B31)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="114" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E31" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="15"/>
@@ -11377,7 +12534,7 @@
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="34">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B32)</f>
@@ -11387,9 +12544,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B32)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="108" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E32" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="15"/>
@@ -11415,7 +12572,7 @@
         <v>Recebimento em Atraso (em dias)³Superior a 180</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="112">
         <f>COUNTIFS(Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B33)</f>
@@ -11425,9 +12582,9 @@
         <f>SUMIFS(Recebimentos!R:R,Recebimentos!X:X,"Recebimento em Atraso",Recebimentos!Y:Y,'Relatório Analítico'!B33)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="114" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E33" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="184"/>
@@ -11453,7 +12610,7 @@
         <v>Recebimento em Atraso (em dias)³Total recebido em Atraso</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="116">
         <f>SUM(C26:C33)</f>
@@ -11463,9 +12620,9 @@
         <f>SUM(D26:D33)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="118" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="E34" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="66"/>
@@ -11563,7 +12720,7 @@
     <row r="38" spans="1:22" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="132" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="134">
@@ -11664,7 +12821,7 @@
     <row r="42" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="110"/>
@@ -11691,13 +12848,13 @@
       <c r="A43" s="1"/>
       <c r="B43" s="105"/>
       <c r="C43" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="144"/>
@@ -11719,11 +12876,11 @@
     </row>
     <row r="44" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f t="shared" ref="A44:A53" si="3">B$42&amp;$B44&amp;$D$5</f>
+        <f t="shared" ref="A44:A53" si="4">B$42&amp;$B44&amp;$D$5</f>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Em Dia</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="34">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B44)</f>
@@ -11733,9 +12890,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="108" t="e">
-        <f t="shared" ref="E44:E53" si="4">+D44/D$53</f>
-        <v>#DIV/0!</v>
+      <c r="E44" s="108">
+        <f>IFERROR(+D44/D$53,0)</f>
+        <v>0</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="144"/>
@@ -11757,11 +12914,11 @@
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Até 15</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="112">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B45)</f>
@@ -11771,9 +12928,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E45" s="114">
+        <f t="shared" ref="E45:E53" si="5">IFERROR(+D45/D$53,0)</f>
+        <v>0</v>
       </c>
       <c r="F45" s="148"/>
       <c r="G45" s="144"/>
@@ -11795,11 +12952,11 @@
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 15 e 30</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="34">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B46)</f>
@@ -11809,9 +12966,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="108" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E46" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="144"/>
@@ -11833,11 +12990,11 @@
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 30 e 60</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="112">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B47)</f>
@@ -11847,9 +13004,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E47" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="144"/>
@@ -11871,11 +13028,11 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 60 e 90</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="34">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B48)</f>
@@ -11885,9 +13042,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B48)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="108" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E48" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="144"/>
@@ -11909,11 +13066,11 @@
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 90 e 120</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="112">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B49)</f>
@@ -11923,9 +13080,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B49)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E49" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="144"/>
@@ -11947,11 +13104,11 @@
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 120 e 150</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="34">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B50)</f>
@@ -11961,9 +13118,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B50)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="108" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E50" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="144"/>
@@ -11985,11 +13142,11 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Entre 150 e 180</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="112">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B51)</f>
@@ -11999,9 +13156,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B51)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E51" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -12023,11 +13180,11 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Superior a 180</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="34">
         <f>COUNTIFS('Base Contratos'!E:E,'Relatório Analítico'!B52)</f>
@@ -12037,9 +13194,9 @@
         <f>SUMIFS('Base Contratos'!C:C,'Base Contratos'!E:E,'Relatório Analítico'!B52)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="108" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E52" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -12061,11 +13218,11 @@
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2. Saldo devedor (trazido a valor presente pela taxa da Cessão)Saldo devedor total:</v>
       </c>
       <c r="B53" s="119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="149">
         <f>SUM(C44:C52)</f>
@@ -12075,9 +13232,9 @@
         <f>SUM(D44:D52)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="121" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E53" s="239">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -12220,7 +13377,7 @@
     <row r="59" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="110"/>
@@ -12247,13 +13404,13 @@
       <c r="A60" s="1"/>
       <c r="B60" s="105"/>
       <c r="C60" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="E60" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="66"/>
@@ -12275,11 +13432,11 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="str">
-        <f t="shared" ref="A61:A68" si="5">B$59&amp;$B61&amp;$D$5</f>
+        <f t="shared" ref="A61:A68" si="6">B$59&amp;$B61&amp;$D$5</f>
         <v>3. Inadimplência da Carteira (em dias)Até 15</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="34">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B61)</f>
@@ -12289,9 +13446,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B61)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="108" t="e">
-        <f t="shared" ref="E61:E68" si="6">+D61/D$69</f>
-        <v>#DIV/0!</v>
+      <c r="E61" s="108">
+        <f>IFERROR(+D61/D$69,0)</f>
+        <v>0</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="66"/>
@@ -12313,11 +13470,11 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3. Inadimplência da Carteira (em dias)Entre 15 e 30</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="112">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B62)</f>
@@ -12327,9 +13484,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B62)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="114" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E62" s="114">
+        <f t="shared" ref="E62:E69" si="7">IFERROR(+D62/D$69,0)</f>
+        <v>0</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="66"/>
@@ -12351,11 +13508,11 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3. Inadimplência da Carteira (em dias)Entre 30 e 60</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="34">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B63)</f>
@@ -12365,9 +13522,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B63)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="108" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E63" s="108">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="66"/>
@@ -12389,11 +13546,11 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3. Inadimplência da Carteira (em dias)Entre 60 e 90</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="112">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B64)</f>
@@ -12403,9 +13560,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B64)</f>
         <v>0</v>
       </c>
-      <c r="E64" s="114" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E64" s="114">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="66"/>
@@ -12427,11 +13584,11 @@
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3. Inadimplência da Carteira (em dias)Entre 90 e 120</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="34">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B65)</f>
@@ -12441,9 +13598,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B65)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="108" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E65" s="108">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="66"/>
@@ -12465,11 +13622,11 @@
     </row>
     <row r="66" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3. Inadimplência da Carteira (em dias)Entre 120 e 150</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="112">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B66)</f>
@@ -12479,9 +13636,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B66)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="114" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E66" s="114">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="66"/>
@@ -12503,11 +13660,11 @@
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3. Inadimplência da Carteira (em dias)Entre 150 e 180</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="34">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B67)</f>
@@ -12517,9 +13674,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B67)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="108" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E67" s="108">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="66"/>
@@ -12541,11 +13698,11 @@
     </row>
     <row r="68" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3. Inadimplência da Carteira (em dias)Superior a 180</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="112">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B68)</f>
@@ -12555,9 +13712,9 @@
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B68)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="114" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E68" s="114">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F68" s="151"/>
       <c r="G68" s="66"/>
@@ -12580,7 +13737,7 @@
     <row r="69" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="116">
         <f>SUM(C61:C68)</f>
@@ -12590,9 +13747,9 @@
         <f>SUM(D61:D68)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="118" t="e">
-        <f>SUM(E61:E68)</f>
-        <v>#DIV/0!</v>
+      <c r="E69" s="118">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F69" s="86"/>
       <c r="G69" s="66"/>
@@ -29414,7 +30571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC68D36-31C8-4F43-B1AB-15BBB5819493}">
   <dimension ref="A1:W66"/>
   <sheetViews>
@@ -29439,7 +30596,7 @@
   <sheetData>
     <row r="1" spans="2:22" s="193" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="189" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C1" s="190"/>
       <c r="D1" s="191"/>
@@ -29511,7 +30668,7 @@
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="200" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="200"/>
       <c r="D24" s="200"/>
@@ -29539,22 +30696,22 @@
       <c r="B25" s="201"/>
       <c r="C25" s="201"/>
       <c r="D25" s="202" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="202" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="202" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="202" t="s">
+      <c r="G25" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="202" t="s">
+      <c r="H25" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="202" t="s">
+      <c r="I25" s="202" t="s">
         <v>154</v>
-      </c>
-      <c r="H25" s="202" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="202" t="s">
-        <v>156</v>
       </c>
       <c r="J25" s="193"/>
       <c r="K25" s="193"/>
@@ -30647,7 +31804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784E8F7D-022F-46E8-A641-1A7703341112}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -30655,7 +31812,7 @@
   <dimension ref="B2:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30671,22 +31828,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="174" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="174" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="174" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="174" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="174" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="174" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="174" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -30897,7 +32054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C38C04-56E1-45DC-9874-8015BB9C6702}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -30939,79 +32096,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="165" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="D1" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="E1" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="F1" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="G1" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="H1" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="167" t="s">
+      <c r="I1" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="J1" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="165" t="s">
+      <c r="K1" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="165" t="s">
+      <c r="L1" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="165" t="s">
+      <c r="M1" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="165" t="s">
+      <c r="N1" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="165" t="s">
+      <c r="O1" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="165" t="s">
+      <c r="P1" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="165" t="s">
+      <c r="Q1" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="165" t="s">
+      <c r="R1" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="165" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="167" t="s">
-        <v>109</v>
-      </c>
       <c r="S1" s="175" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T1" s="175" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U1" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="156" t="s">
+      <c r="X1" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="156" t="s">
+      <c r="Y1" s="156" t="s">
         <v>134</v>
-      </c>
-      <c r="X1" s="156" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y1" s="156" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -31243,14 +32400,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8263F4FC-F108-404D-887D-D12690E8C142}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:R1511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -31277,7 +32434,7 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="238"/>
       <c r="K1" s="172" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L1" s="171">
         <v>0.1168</v>
@@ -31286,7 +32443,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K2" s="172" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L2" s="171">
         <f>(1+L1)^(1/12)-1</f>
@@ -31297,7 +32454,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K3" s="172" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L3" s="173">
         <f>DATE(YEAR(A1),MONTH(A1),DAY(A1))</f>
@@ -31318,58 +32475,58 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="D6" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="E6" s="165" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="G6" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="165" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="165" t="s">
+      <c r="I6" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="166" t="s">
+      <c r="J6" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="K6" s="165" t="s">
         <v>116</v>
-      </c>
-      <c r="J6" s="165" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="165" t="s">
-        <v>118</v>
       </c>
       <c r="L6" s="168" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="178" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N6" s="156" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6" s="156" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="156" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="156" t="s">
-        <v>139</v>
-      </c>
       <c r="Q6" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="156" t="s">
         <v>134</v>
-      </c>
-      <c r="R6" s="156" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -40546,7 +41703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7730C7-C45A-4937-9A68-A4CD8203A7E7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -40575,37 +41732,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E1" s="154" t="s">
         <v>45</v>
       </c>
       <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
-      </c>
-      <c r="J1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -40634,7 +41791,7 @@
       <c r="J3" s="163"/>
       <c r="K3" s="164"/>
       <c r="M3" s="156" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -40650,7 +41807,7 @@
       <c r="J4" s="163"/>
       <c r="K4" s="164"/>
       <c r="M4" s="156" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -40666,7 +41823,7 @@
       <c r="J5" s="163"/>
       <c r="K5" s="164"/>
       <c r="M5" s="156" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -40682,7 +41839,7 @@
       <c r="J6" s="163"/>
       <c r="K6" s="164"/>
       <c r="M6" s="156" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -40698,7 +41855,7 @@
       <c r="J7" s="163"/>
       <c r="K7" s="164"/>
       <c r="M7" s="156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
